--- a/data/trans_orig/P6704-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6704-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB553E55-89E4-4837-916F-F76C5856E010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C187013-A6D4-4C11-BE0E-F44C5A3412FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4471588A-A481-4BC4-AEB0-D269F520F9A3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73B8A5A3-8994-44D8-97F7-9051BC3F0E15}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="742">
   <si>
     <t>Población según si le cuata olvidar los problemas del trabajo en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
@@ -76,2149 +76,2194 @@
     <t>21,92%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
   </si>
   <si>
     <t>12,42%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
   </si>
   <si>
     <t>18,81%</t>
   </si>
   <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
     <t>11,42%</t>
   </si>
   <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
     <t>29,57%</t>
   </si>
   <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le cuata olvidar los problemas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>Población según si le cuata olvidar los problemas del trabajo en 2023 (Tasa respuesta: 10,34%)</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
   </si>
   <si>
     <t>26,5%</t>
   </si>
   <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
   </si>
   <si>
     <t>20,89%</t>
   </si>
   <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
+    <t>28,83%</t>
   </si>
   <si>
     <t>11,35%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2023 (Tasa respuesta: 10,34%)</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
 </sst>
 </file>
@@ -2630,7 +2675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E0F519-28E1-48D9-9E05-AA4F0A0444E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8133A5AE-AA04-4F67-AF18-4DCB9F064533}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2940,16 +2985,16 @@
         <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
@@ -2958,13 +3003,13 @@
         <v>4188</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2973,13 +3018,13 @@
         <v>1213</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -2988,13 +3033,13 @@
         <v>5400</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +3054,13 @@
         <v>51733</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -3024,13 +3069,13 @@
         <v>25186</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>76</v>
@@ -3039,18 +3084,18 @@
         <v>76919</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3062,13 +3107,13 @@
         <v>49295</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3077,13 +3122,13 @@
         <v>29107</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -3092,13 +3137,13 @@
         <v>78402</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3158,13 @@
         <v>49291</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -3128,13 +3173,13 @@
         <v>31645</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>76</v>
@@ -3143,13 +3188,13 @@
         <v>80936</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3209,13 @@
         <v>57048</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>40</v>
@@ -3179,13 +3224,13 @@
         <v>42505</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>96</v>
@@ -3194,13 +3239,13 @@
         <v>99553</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3260,13 @@
         <v>35622</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -3230,13 +3275,13 @@
         <v>18420</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -3245,19 +3290,19 @@
         <v>54042</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>24</v>
@@ -3266,13 +3311,13 @@
         <v>25949</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -3281,13 +3326,13 @@
         <v>14412</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -3296,7 +3341,7 @@
         <v>40360</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>104</v>
@@ -3317,13 +3362,13 @@
         <v>217204</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>128</v>
@@ -3332,13 +3377,13 @@
         <v>136089</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>334</v>
@@ -3347,13 +3392,13 @@
         <v>353293</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,7 +3472,7 @@
         <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -3472,13 +3517,13 @@
         <v>126553</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -3490,7 +3535,7 @@
         <v>24</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>126</v>
@@ -3502,13 +3547,13 @@
         <v>200775</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3568,13 @@
         <v>62625</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -3541,10 +3586,10 @@
         <v>117</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>97</v>
@@ -3553,19 +3598,19 @@
         <v>104864</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>70</v>
@@ -3574,13 +3619,13 @@
         <v>75257</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -3589,13 +3634,13 @@
         <v>42453</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
@@ -3604,13 +3649,13 @@
         <v>117711</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3670,13 @@
         <v>410691</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>243</v>
@@ -3640,13 +3685,13 @@
         <v>268348</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>621</v>
@@ -3655,18 +3700,18 @@
         <v>679039</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3678,13 +3723,13 @@
         <v>70584</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -3693,13 +3738,13 @@
         <v>39898</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>98</v>
@@ -3708,13 +3753,13 @@
         <v>110482</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3774,13 @@
         <v>48175</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -3744,13 +3789,13 @@
         <v>39258</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>77</v>
@@ -3759,13 +3804,13 @@
         <v>87434</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3825,13 @@
         <v>87788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>48</v>
@@ -3795,13 +3840,13 @@
         <v>54203</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>129</v>
@@ -3810,13 +3855,13 @@
         <v>141991</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3876,13 @@
         <v>40075</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -3846,13 +3891,13 @@
         <v>26877</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -3861,19 +3906,19 @@
         <v>66951</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>66</v>
@@ -3882,13 +3927,13 @@
         <v>73025</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>45</v>
@@ -3897,13 +3942,13 @@
         <v>52048</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>111</v>
@@ -3912,13 +3957,13 @@
         <v>125073</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3978,13 @@
         <v>319647</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>190</v>
@@ -3948,13 +3993,13 @@
         <v>212283</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>479</v>
@@ -3963,18 +4008,18 @@
         <v>531931</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3986,13 +4031,13 @@
         <v>64008</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>79</v>
@@ -4001,13 +4046,13 @@
         <v>82537</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>140</v>
@@ -4016,13 +4061,13 @@
         <v>146545</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4082,13 @@
         <v>76146</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -4052,13 +4097,13 @@
         <v>42915</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>114</v>
@@ -4067,13 +4112,13 @@
         <v>119061</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4133,13 @@
         <v>146350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>90</v>
@@ -4103,13 +4148,13 @@
         <v>93809</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>234</v>
@@ -4118,13 +4163,13 @@
         <v>240159</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4184,13 @@
         <v>85151</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H31" s="7">
         <v>54</v>
@@ -4154,13 +4199,13 @@
         <v>58440</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>137</v>
@@ -4169,19 +4214,19 @@
         <v>143591</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>42</v>
@@ -4190,13 +4235,13 @@
         <v>44678</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>22</v>
@@ -4205,13 +4250,13 @@
         <v>22816</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>64</v>
@@ -4220,13 +4265,13 @@
         <v>67493</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4286,13 @@
         <v>416332</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>287</v>
@@ -4256,13 +4301,13 @@
         <v>300517</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>689</v>
@@ -4271,13 +4316,13 @@
         <v>716849</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4339,13 @@
         <v>264360</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>204</v>
@@ -4309,13 +4354,13 @@
         <v>221866</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>446</v>
@@ -4324,13 +4369,13 @@
         <v>486225</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4390,13 @@
         <v>258212</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>151</v>
@@ -4360,13 +4405,13 @@
         <v>163024</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>390</v>
@@ -4375,13 +4420,13 @@
         <v>421235</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4441,13 @@
         <v>441591</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>253</v>
@@ -4411,13 +4456,13 @@
         <v>272953</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>250</v>
+        <v>63</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>676</v>
@@ -4426,13 +4471,13 @@
         <v>714544</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4492,13 @@
         <v>228348</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>142</v>
@@ -4462,13 +4507,13 @@
         <v>151640</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>360</v>
@@ -4477,19 +4522,19 @@
         <v>379988</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>207</v>
@@ -4498,13 +4543,13 @@
         <v>223097</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>264</v>
+        <v>105</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H38" s="7">
         <v>120</v>
@@ -4513,13 +4558,13 @@
         <v>132941</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M38" s="7">
         <v>327</v>
@@ -4528,13 +4573,13 @@
         <v>356038</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>116</v>
+        <v>274</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4594,13 @@
         <v>1415607</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>870</v>
@@ -4564,13 +4609,13 @@
         <v>942424</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>2199</v>
@@ -4579,18 +4624,18 @@
         <v>2358031</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -4611,7 +4656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61585596-6E10-43BF-915F-E3C34F5EE2FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0261A1D0-8FCD-473A-9DD5-E0F140A0E592}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4628,7 +4673,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4735,13 +4780,13 @@
         <v>10309</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4750,13 +4795,13 @@
         <v>7093</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>277</v>
+        <v>204</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4765,13 +4810,13 @@
         <v>17402</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>210</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4831,13 @@
         <v>4991</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4801,13 +4846,13 @@
         <v>4350</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4816,13 +4861,13 @@
         <v>9342</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4882,13 @@
         <v>10743</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4852,13 +4897,13 @@
         <v>6451</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4867,13 +4912,13 @@
         <v>17194</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4933,13 @@
         <v>13153</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4903,13 +4948,13 @@
         <v>9247</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -4918,19 +4963,19 @@
         <v>22399</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
@@ -4939,13 +4984,13 @@
         <v>4825</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4954,13 +4999,13 @@
         <v>2750</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -4969,13 +5014,13 @@
         <v>7575</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>27</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +5035,13 @@
         <v>44021</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -5005,13 +5050,13 @@
         <v>29891</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>75</v>
@@ -5020,18 +5065,18 @@
         <v>73912</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5043,13 +5088,13 @@
         <v>34735</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>316</v>
+        <v>115</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -5058,13 +5103,13 @@
         <v>36126</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>317</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>113</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -5073,13 +5118,13 @@
         <v>70861</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5139,13 @@
         <v>35617</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -5109,13 +5154,13 @@
         <v>33186</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>330</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M11" s="7">
         <v>67</v>
@@ -5124,13 +5169,13 @@
         <v>68804</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5190,13 @@
         <v>61146</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>332</v>
+        <v>217</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -5160,13 +5205,13 @@
         <v>34799</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M12" s="7">
         <v>95</v>
@@ -5175,13 +5220,13 @@
         <v>95945</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5241,13 @@
         <v>46712</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -5211,13 +5256,13 @@
         <v>22196</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -5226,19 +5271,19 @@
         <v>68908</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>241</v>
+        <v>348</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>349</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>19</v>
@@ -5247,13 +5292,13 @@
         <v>21059</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>347</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -5262,13 +5307,13 @@
         <v>11171</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -5277,13 +5322,13 @@
         <v>32229</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5343,13 @@
         <v>199269</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>142</v>
@@ -5313,13 +5358,13 @@
         <v>137478</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>330</v>
@@ -5328,13 +5373,13 @@
         <v>336747</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5396,13 @@
         <v>104645</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -5366,13 +5411,13 @@
         <v>77156</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M16" s="7">
         <v>170</v>
@@ -5381,13 +5426,13 @@
         <v>181802</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5447,13 @@
         <v>65140</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -5417,13 +5462,13 @@
         <v>50066</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>365</v>
+        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
@@ -5432,13 +5477,13 @@
         <v>115206</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5498,13 @@
         <v>114160</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H18" s="7">
         <v>73</v>
@@ -5468,13 +5513,13 @@
         <v>72429</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="M18" s="7">
         <v>176</v>
@@ -5483,13 +5528,13 @@
         <v>186588</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5549,13 @@
         <v>84424</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
@@ -5519,13 +5564,13 @@
         <v>52043</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M19" s="7">
         <v>123</v>
@@ -5534,19 +5579,19 @@
         <v>136467</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>155</v>
+        <v>388</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>173</v>
+        <v>389</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>40</v>
@@ -5555,13 +5600,13 @@
         <v>45672</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>154</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -5570,13 +5615,13 @@
         <v>22077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>274</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
         <v>61</v>
@@ -5585,13 +5630,13 @@
         <v>67749</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5651,13 @@
         <v>414041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -5621,13 +5666,13 @@
         <v>273771</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>639</v>
@@ -5636,18 +5681,18 @@
         <v>687812</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5659,13 +5704,13 @@
         <v>76836</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -5674,13 +5719,13 @@
         <v>43184</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>405</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
@@ -5689,13 +5734,13 @@
         <v>120020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5755,13 @@
         <v>58403</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="H23" s="7">
         <v>62</v>
@@ -5725,13 +5770,13 @@
         <v>63138</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="M23" s="7">
         <v>115</v>
@@ -5740,13 +5785,13 @@
         <v>121541</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>403</v>
+        <v>250</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>404</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,13 +5806,13 @@
         <v>133025</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="H24" s="7">
         <v>92</v>
@@ -5776,13 +5821,13 @@
         <v>93714</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>19</v>
+        <v>419</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="M24" s="7">
         <v>210</v>
@@ -5791,13 +5836,13 @@
         <v>226739</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5857,13 @@
         <v>49784</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>415</v>
+        <v>68</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -5827,13 +5872,13 @@
         <v>45081</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="M25" s="7">
         <v>90</v>
@@ -5842,19 +5887,19 @@
         <v>94865</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>42</v>
@@ -5863,13 +5908,13 @@
         <v>45772</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>423</v>
+        <v>206</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -5878,13 +5923,13 @@
         <v>25441</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="M26" s="7">
         <v>67</v>
@@ -5893,13 +5938,13 @@
         <v>71213</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5959,13 @@
         <v>363820</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>265</v>
@@ -5929,13 +5974,13 @@
         <v>270558</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
@@ -5944,18 +5989,18 @@
         <v>634378</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5967,13 +6012,13 @@
         <v>102516</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>432</v>
+        <v>334</v>
       </c>
       <c r="H28" s="7">
         <v>91</v>
@@ -5982,13 +6027,13 @@
         <v>97799</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>344</v>
+        <v>443</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="M28" s="7">
         <v>190</v>
@@ -5997,13 +6042,13 @@
         <v>200316</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,13 +6063,13 @@
         <v>80388</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>94</v>
+        <v>447</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -6033,13 +6078,13 @@
         <v>44338</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="M29" s="7">
         <v>119</v>
@@ -6048,13 +6093,13 @@
         <v>124725</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>443</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,13 +6114,13 @@
         <v>108608</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="H30" s="7">
         <v>89</v>
@@ -6084,13 +6129,13 @@
         <v>93591</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>49</v>
+        <v>458</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="M30" s="7">
         <v>196</v>
@@ -6099,13 +6144,13 @@
         <v>202199</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>449</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6165,13 @@
         <v>66045</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>423</v>
+        <v>462</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="H31" s="7">
         <v>49</v>
@@ -6135,13 +6180,13 @@
         <v>51787</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>122</v>
+        <v>467</v>
       </c>
       <c r="M31" s="7">
         <v>117</v>
@@ -6150,19 +6195,19 @@
         <v>117832</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>42</v>
@@ -6171,13 +6216,13 @@
         <v>43614</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="H32" s="7">
         <v>36</v>
@@ -6186,13 +6231,13 @@
         <v>37959</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>460</v>
+        <v>89</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>461</v>
+        <v>104</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>189</v>
+        <v>409</v>
       </c>
       <c r="M32" s="7">
         <v>78</v>
@@ -6201,13 +6246,13 @@
         <v>81573</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>265</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6267,13 @@
         <v>401171</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>307</v>
@@ -6237,13 +6282,13 @@
         <v>325474</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>700</v>
@@ -6252,13 +6297,13 @@
         <v>726645</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,13 +6320,13 @@
         <v>329042</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="H34" s="7">
         <v>254</v>
@@ -6290,13 +6335,13 @@
         <v>261359</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>468</v>
+        <v>78</v>
       </c>
       <c r="M34" s="7">
         <v>559</v>
@@ -6305,13 +6350,13 @@
         <v>590401</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>393</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,13 +6371,13 @@
         <v>244539</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>471</v>
+        <v>99</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="H35" s="7">
         <v>191</v>
@@ -6344,10 +6389,10 @@
         <v>17</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="M35" s="7">
         <v>420</v>
@@ -6356,13 +6401,13 @@
         <v>439618</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>477</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,13 +6422,13 @@
         <v>427682</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="H36" s="7">
         <v>297</v>
@@ -6392,13 +6437,13 @@
         <v>300983</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="M36" s="7">
         <v>693</v>
@@ -6407,13 +6452,13 @@
         <v>728665</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,13 +6473,13 @@
         <v>260118</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>487</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>81</v>
+        <v>498</v>
       </c>
       <c r="H37" s="7">
         <v>174</v>
@@ -6443,13 +6488,13 @@
         <v>180353</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="M37" s="7">
         <v>419</v>
@@ -6458,19 +6503,19 @@
         <v>440471</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>148</v>
@@ -6479,13 +6524,13 @@
         <v>160941</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="H38" s="7">
         <v>97</v>
@@ -6494,13 +6539,13 @@
         <v>99398</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="M38" s="7">
         <v>245</v>
@@ -6509,13 +6554,13 @@
         <v>260339</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6575,13 @@
         <v>1422322</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>1013</v>
@@ -6545,13 +6590,13 @@
         <v>1037172</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>2336</v>
@@ -6560,18 +6605,18 @@
         <v>2459494</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -6592,7 +6637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F732296-D5C5-4110-B351-D794CF29AF3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2389CCB3-7301-439B-89DC-F2DB9E392ADE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6609,7 +6654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6716,13 +6761,13 @@
         <v>7291</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>504</v>
+        <v>401</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6731,13 +6776,13 @@
         <v>1884</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>516</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -6746,13 +6791,13 @@
         <v>9176</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6767,13 +6812,13 @@
         <v>1844</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6782,13 +6827,13 @@
         <v>1989</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -6797,13 +6842,13 @@
         <v>3833</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6818,13 +6863,13 @@
         <v>3604</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>55</v>
+        <v>528</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6833,13 +6878,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6848,13 +6893,13 @@
         <v>3604</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,13 +6914,13 @@
         <v>1382</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -6884,13 +6929,13 @@
         <v>3987</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -6899,19 +6944,19 @@
         <v>5370</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>104</v>
+        <v>509</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -6920,13 +6965,13 @@
         <v>1263</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6935,13 +6980,13 @@
         <v>543</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -6950,13 +6995,13 @@
         <v>1806</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,13 +7016,13 @@
         <v>15385</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -6986,13 +7031,13 @@
         <v>8404</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -7001,18 +7046,18 @@
         <v>23789</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7024,13 +7069,13 @@
         <v>16414</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>538</v>
+        <v>108</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -7039,13 +7084,13 @@
         <v>27695</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -7054,13 +7099,13 @@
         <v>44108</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>543</v>
+        <v>457</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,13 +7120,13 @@
         <v>11129</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -7090,13 +7135,13 @@
         <v>4062</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>516</v>
+        <v>435</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -7105,13 +7150,13 @@
         <v>15191</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>553</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7126,13 +7171,13 @@
         <v>22743</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>555</v>
+        <v>241</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -7141,13 +7186,13 @@
         <v>21048</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>557</v>
+        <v>375</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -7156,13 +7201,13 @@
         <v>43791</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,13 +7222,13 @@
         <v>15552</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -7192,13 +7237,13 @@
         <v>11716</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>571</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -7207,19 +7252,19 @@
         <v>27268</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>4</v>
@@ -7228,13 +7273,13 @@
         <v>8707</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -7243,13 +7288,13 @@
         <v>828</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>525</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -7258,13 +7303,13 @@
         <v>9536</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7279,13 +7324,13 @@
         <v>74546</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>92</v>
@@ -7294,13 +7339,13 @@
         <v>65348</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -7309,13 +7354,13 @@
         <v>139894</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7332,13 +7377,13 @@
         <v>107610</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>578</v>
+        <v>545</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -7347,13 +7392,13 @@
         <v>40279</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -7362,13 +7407,13 @@
         <v>147889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>512</v>
+        <v>588</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7383,13 +7428,13 @@
         <v>29269</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>583</v>
+        <v>264</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -7398,13 +7443,13 @@
         <v>22824</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>588</v>
+        <v>445</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -7413,13 +7458,13 @@
         <v>52093</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7434,13 +7479,13 @@
         <v>48126</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>594</v>
+        <v>491</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -7449,13 +7494,13 @@
         <v>34165</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="M18" s="7">
         <v>91</v>
@@ -7464,13 +7509,13 @@
         <v>82291</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7485,13 +7530,13 @@
         <v>19790</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -7500,13 +7545,13 @@
         <v>16700</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>606</v>
+        <v>186</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -7515,19 +7560,19 @@
         <v>36489</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>425</v>
+        <v>612</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>7</v>
@@ -7536,13 +7581,13 @@
         <v>7838</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -7551,13 +7596,13 @@
         <v>14206</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -7566,13 +7611,13 @@
         <v>22044</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>350</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,13 +7632,13 @@
         <v>212633</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>166</v>
@@ -7602,13 +7647,13 @@
         <v>128174</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>307</v>
@@ -7617,18 +7662,18 @@
         <v>340807</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7640,13 +7685,13 @@
         <v>29461</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>344</v>
+        <v>624</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -7655,13 +7700,13 @@
         <v>25934</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -7670,13 +7715,13 @@
         <v>55395</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7691,13 +7736,13 @@
         <v>9973</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -7706,13 +7751,13 @@
         <v>18590</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="M23" s="7">
         <v>32</v>
@@ -7721,13 +7766,13 @@
         <v>28563</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>392</v>
+        <v>637</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,13 +7787,13 @@
         <v>18525</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>148</v>
+        <v>640</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -7757,13 +7802,13 @@
         <v>19710</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>279</v>
+        <v>642</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -7772,13 +7817,13 @@
         <v>38235</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>467</v>
+        <v>644</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>635</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,13 +7838,13 @@
         <v>9744</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -7808,13 +7853,13 @@
         <v>6833</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>203</v>
+        <v>651</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -7823,19 +7868,19 @@
         <v>16577</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>10</v>
@@ -7844,13 +7889,13 @@
         <v>13402</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -7859,13 +7904,13 @@
         <v>18430</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -7874,13 +7919,13 @@
         <v>31832</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,13 +7940,13 @@
         <v>81105</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>110</v>
@@ -7910,13 +7955,13 @@
         <v>89496</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>180</v>
@@ -7925,18 +7970,18 @@
         <v>170601</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7948,13 +7993,13 @@
         <v>49500</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="H28" s="7">
         <v>45</v>
@@ -7963,13 +8008,13 @@
         <v>33189</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="M28" s="7">
         <v>90</v>
@@ -7978,13 +8023,13 @@
         <v>82689</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>559</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,13 +8044,13 @@
         <v>13618</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>663</v>
+        <v>385</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -8014,13 +8059,13 @@
         <v>14240</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>91</v>
+        <v>677</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -8029,13 +8074,13 @@
         <v>27858</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>666</v>
+        <v>436</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>668</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8050,13 +8095,13 @@
         <v>27844</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>670</v>
+        <v>88</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="H30" s="7">
         <v>37</v>
@@ -8065,13 +8110,13 @@
         <v>27380</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>373</v>
+        <v>487</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="M30" s="7">
         <v>63</v>
@@ -8080,13 +8125,13 @@
         <v>55224</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>676</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8101,13 +8146,13 @@
         <v>9923</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -8116,13 +8161,13 @@
         <v>11898</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>681</v>
+        <v>658</v>
       </c>
       <c r="M31" s="7">
         <v>25</v>
@@ -8131,19 +8176,19 @@
         <v>21820</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>11</v>
@@ -8152,13 +8197,13 @@
         <v>12199</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>687</v>
+        <v>132</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -8167,13 +8212,13 @@
         <v>7881</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>175</v>
+        <v>694</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>689</v>
+        <v>462</v>
       </c>
       <c r="M32" s="7">
         <v>21</v>
@@ -8182,13 +8227,13 @@
         <v>20081</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8203,13 +8248,13 @@
         <v>113085</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>128</v>
@@ -8218,13 +8263,13 @@
         <v>94587</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>236</v>
@@ -8233,13 +8278,13 @@
         <v>207672</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8256,13 +8301,13 @@
         <v>210276</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="H34" s="7">
         <v>167</v>
@@ -8271,13 +8316,13 @@
         <v>128981</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="M34" s="7">
         <v>304</v>
@@ -8286,13 +8331,13 @@
         <v>339257</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8307,13 +8352,13 @@
         <v>65834</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>422</v>
+        <v>709</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="H35" s="7">
         <v>85</v>
@@ -8322,13 +8367,13 @@
         <v>61704</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="M35" s="7">
         <v>149</v>
@@ -8337,13 +8382,13 @@
         <v>127538</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,13 +8403,13 @@
         <v>120844</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>231</v>
+        <v>718</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="H36" s="7">
         <v>138</v>
@@ -8373,13 +8418,13 @@
         <v>102301</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>23</v>
+        <v>720</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="M36" s="7">
         <v>251</v>
@@ -8388,13 +8433,13 @@
         <v>223145</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8409,13 +8454,13 @@
         <v>56391</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>227</v>
+        <v>726</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>680</v>
+        <v>727</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="H37" s="7">
         <v>68</v>
@@ -8424,13 +8469,13 @@
         <v>51133</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>593</v>
+        <v>729</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="M37" s="7">
         <v>116</v>
@@ -8439,19 +8484,19 @@
         <v>107525</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>718</v>
+        <v>410</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>385</v>
+        <v>732</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>33</v>
@@ -8460,13 +8505,13 @@
         <v>43409</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="H38" s="7">
         <v>51</v>
@@ -8475,13 +8520,13 @@
         <v>41888</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>223</v>
+        <v>737</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="M38" s="7">
         <v>84</v>
@@ -8490,13 +8535,13 @@
         <v>85298</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>564</v>
+        <v>739</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8511,13 +8556,13 @@
         <v>496754</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>509</v>
@@ -8526,13 +8571,13 @@
         <v>386007</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>904</v>
@@ -8541,18 +8586,18 @@
         <v>882762</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6704-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6704-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C187013-A6D4-4C11-BE0E-F44C5A3412FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{045C1C29-FB74-4662-B58C-F23028C378F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73B8A5A3-8994-44D8-97F7-9051BC3F0E15}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{95AB5F16-677F-4ED9-A991-17C99EBCAC7F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="744">
   <si>
     <t>Población según si le cuata olvidar los problemas del trabajo en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -76,2161 +76,2167 @@
     <t>21,92%</t>
   </si>
   <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le cuata olvidar los problemas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
+    <t>Población según si le cuata olvidar los problemas del trabajo en 2023 (Tasa respuesta: 10,34%)</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
   </si>
   <si>
     <t>17,15%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
     <t>19,37%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
   </si>
   <si>
     <t>12,18%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2023 (Tasa respuesta: 10,34%)</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
   </si>
   <si>
     <t>9,64%</t>
@@ -2675,7 +2681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8133A5AE-AA04-4F67-AF18-4DCB9F064533}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FDF9BA-17C1-4740-A5F6-5B92787306A8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2985,16 +2991,16 @@
         <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
@@ -3003,13 +3009,13 @@
         <v>4188</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3018,13 +3024,13 @@
         <v>1213</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -3033,13 +3039,13 @@
         <v>5400</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,13 +3060,13 @@
         <v>51733</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -3069,13 +3075,13 @@
         <v>25186</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>76</v>
@@ -3084,18 +3090,18 @@
         <v>76919</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3107,13 +3113,13 @@
         <v>49295</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3122,13 +3128,13 @@
         <v>29107</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -3137,13 +3143,13 @@
         <v>78402</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,13 +3164,13 @@
         <v>49291</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -3173,13 +3179,13 @@
         <v>31645</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>76</v>
@@ -3188,13 +3194,13 @@
         <v>80936</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +3215,13 @@
         <v>57048</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>40</v>
@@ -3224,7 +3230,7 @@
         <v>42505</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>83</v>
@@ -3302,7 +3308,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>24</v>
@@ -3362,13 +3368,13 @@
         <v>217204</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>128</v>
@@ -3377,13 +3383,13 @@
         <v>136089</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>334</v>
@@ -3392,13 +3398,13 @@
         <v>353293</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,7 +3478,7 @@
         <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -3535,10 +3541,10 @@
         <v>24</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>186</v>
@@ -3547,13 +3553,13 @@
         <v>200775</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,10 +3574,10 @@
         <v>62625</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>132</v>
@@ -3604,13 +3610,13 @@
         <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>70</v>
@@ -3619,13 +3625,13 @@
         <v>75257</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -3634,13 +3640,13 @@
         <v>42453</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
@@ -3649,13 +3655,13 @@
         <v>117711</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,13 +3676,13 @@
         <v>410691</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>243</v>
@@ -3685,13 +3691,13 @@
         <v>268348</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>621</v>
@@ -3700,13 +3706,13 @@
         <v>679039</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,10 +3762,10 @@
         <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3780,13 @@
         <v>48175</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -3789,13 +3795,13 @@
         <v>39258</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>77</v>
@@ -3804,13 +3810,13 @@
         <v>87434</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3831,13 @@
         <v>87788</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>48</v>
@@ -3840,13 +3846,13 @@
         <v>54203</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>129</v>
@@ -3855,13 +3861,13 @@
         <v>141991</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3882,13 @@
         <v>40075</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -3891,13 +3897,13 @@
         <v>26877</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -3906,19 +3912,19 @@
         <v>66951</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>66</v>
@@ -3927,13 +3933,13 @@
         <v>73025</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>45</v>
@@ -3942,13 +3948,13 @@
         <v>52048</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>111</v>
@@ -3957,13 +3963,13 @@
         <v>125073</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +3984,13 @@
         <v>319647</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>190</v>
@@ -3993,13 +3999,13 @@
         <v>212283</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>479</v>
@@ -4008,18 +4014,18 @@
         <v>531931</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4031,13 +4037,13 @@
         <v>64008</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>79</v>
@@ -4046,13 +4052,13 @@
         <v>82537</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>140</v>
@@ -4061,13 +4067,13 @@
         <v>146545</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4088,13 @@
         <v>76146</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -4097,13 +4103,13 @@
         <v>42915</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>114</v>
@@ -4112,13 +4118,13 @@
         <v>119061</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4139,13 @@
         <v>146350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>90</v>
@@ -4148,13 +4154,13 @@
         <v>93809</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>234</v>
@@ -4163,13 +4169,13 @@
         <v>240159</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4190,13 @@
         <v>85151</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>54</v>
@@ -4199,13 +4205,13 @@
         <v>58440</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="M31" s="7">
         <v>137</v>
@@ -4214,19 +4220,19 @@
         <v>143591</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>73</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>42</v>
@@ -4235,13 +4241,13 @@
         <v>44678</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>22</v>
@@ -4250,13 +4256,13 @@
         <v>22816</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>64</v>
@@ -4265,13 +4271,13 @@
         <v>67493</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4292,13 @@
         <v>416332</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>287</v>
@@ -4301,13 +4307,13 @@
         <v>300517</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>689</v>
@@ -4316,13 +4322,13 @@
         <v>716849</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4345,13 @@
         <v>264360</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>204</v>
@@ -4354,13 +4360,13 @@
         <v>221866</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>446</v>
@@ -4369,13 +4375,13 @@
         <v>486225</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4396,13 @@
         <v>258212</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>151</v>
@@ -4405,13 +4411,13 @@
         <v>163024</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>390</v>
@@ -4420,13 +4426,13 @@
         <v>421235</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>251</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4447,13 @@
         <v>441591</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>253</v>
@@ -4456,13 +4462,13 @@
         <v>272953</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>63</v>
+        <v>250</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>676</v>
@@ -4471,13 +4477,13 @@
         <v>714544</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4498,13 @@
         <v>228348</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>142</v>
@@ -4507,13 +4513,13 @@
         <v>151640</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>360</v>
@@ -4522,19 +4528,19 @@
         <v>379988</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>267</v>
+        <v>144</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>207</v>
@@ -4543,13 +4549,13 @@
         <v>223097</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>105</v>
+        <v>264</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H38" s="7">
         <v>120</v>
@@ -4558,13 +4564,13 @@
         <v>132941</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M38" s="7">
         <v>327</v>
@@ -4573,13 +4579,13 @@
         <v>356038</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4600,13 @@
         <v>1415607</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>870</v>
@@ -4609,13 +4615,13 @@
         <v>942424</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>2199</v>
@@ -4624,18 +4630,18 @@
         <v>2358031</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4656,7 +4662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0261A1D0-8FCD-473A-9DD5-E0F140A0E592}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96F014E-4703-4D80-9CD5-81BD7DF66E71}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4673,7 +4679,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4780,13 +4786,13 @@
         <v>10309</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>115</v>
+        <v>275</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4795,13 +4801,13 @@
         <v>7093</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>204</v>
+        <v>279</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4810,13 +4816,13 @@
         <v>17402</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4837,13 @@
         <v>4991</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4846,13 +4852,13 @@
         <v>4350</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4861,13 +4867,13 @@
         <v>9342</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4888,13 @@
         <v>10743</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4897,13 +4903,13 @@
         <v>6451</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4912,13 +4918,13 @@
         <v>17194</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4939,13 @@
         <v>13153</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4948,13 +4954,13 @@
         <v>9247</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -4963,19 +4969,19 @@
         <v>22399</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>310</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
@@ -4984,13 +4990,13 @@
         <v>4825</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4999,13 +5005,13 @@
         <v>2750</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -5014,13 +5020,13 @@
         <v>7575</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +5041,13 @@
         <v>44021</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -5050,13 +5056,13 @@
         <v>29891</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>75</v>
@@ -5065,18 +5071,18 @@
         <v>73912</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5088,13 +5094,13 @@
         <v>34735</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>321</v>
+        <v>148</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>136</v>
+        <v>317</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>115</v>
+        <v>318</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -5106,10 +5112,10 @@
         <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -5118,13 +5124,13 @@
         <v>70861</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>236</v>
+        <v>321</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5145,13 @@
         <v>35617</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -5154,13 +5160,13 @@
         <v>33186</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M11" s="7">
         <v>67</v>
@@ -5169,13 +5175,13 @@
         <v>68804</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>331</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5196,13 @@
         <v>61146</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -5205,13 +5211,13 @@
         <v>34799</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M12" s="7">
         <v>95</v>
@@ -5220,13 +5226,13 @@
         <v>95945</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5247,13 @@
         <v>46712</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -5256,13 +5262,13 @@
         <v>22196</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -5271,19 +5277,19 @@
         <v>68908</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>349</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>19</v>
@@ -5292,13 +5298,13 @@
         <v>21059</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -5307,13 +5313,13 @@
         <v>11171</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -5322,13 +5328,13 @@
         <v>32229</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5349,13 @@
         <v>199269</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>142</v>
@@ -5358,13 +5364,13 @@
         <v>137478</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>330</v>
@@ -5373,13 +5379,13 @@
         <v>336747</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5402,13 @@
         <v>104645</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -5414,10 +5420,10 @@
         <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M16" s="7">
         <v>170</v>
@@ -5426,13 +5432,13 @@
         <v>181802</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5453,13 @@
         <v>65140</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -5462,13 +5468,13 @@
         <v>50066</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
@@ -5477,13 +5483,13 @@
         <v>115206</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5504,13 @@
         <v>114160</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H18" s="7">
         <v>73</v>
@@ -5513,13 +5519,13 @@
         <v>72429</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M18" s="7">
         <v>176</v>
@@ -5528,13 +5534,13 @@
         <v>186588</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5555,13 @@
         <v>84424</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>382</v>
+        <v>145</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>384</v>
+        <v>154</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
@@ -5564,13 +5570,13 @@
         <v>52043</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M19" s="7">
         <v>123</v>
@@ -5579,19 +5585,19 @@
         <v>136467</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>389</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>390</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>40</v>
@@ -5600,13 +5606,13 @@
         <v>45672</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -5615,13 +5621,13 @@
         <v>22077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>396</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>61</v>
@@ -5630,13 +5636,13 @@
         <v>67749</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>397</v>
+        <v>279</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>399</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,13 +5657,13 @@
         <v>414041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -5666,13 +5672,13 @@
         <v>273771</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>639</v>
@@ -5681,13 +5687,13 @@
         <v>687812</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5710,13 @@
         <v>76836</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -5719,13 +5725,13 @@
         <v>43184</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
@@ -5734,13 +5740,13 @@
         <v>120020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,13 +5761,13 @@
         <v>58403</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="H23" s="7">
         <v>62</v>
@@ -5770,13 +5776,13 @@
         <v>63138</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="M23" s="7">
         <v>115</v>
@@ -5785,13 +5791,13 @@
         <v>121541</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>250</v>
+        <v>343</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>70</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5812,13 @@
         <v>133025</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="H24" s="7">
         <v>92</v>
@@ -5821,13 +5827,13 @@
         <v>93714</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="M24" s="7">
         <v>210</v>
@@ -5836,13 +5842,13 @@
         <v>226739</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5863,13 @@
         <v>49784</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>68</v>
+        <v>419</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -5872,13 +5878,13 @@
         <v>45081</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="M25" s="7">
         <v>90</v>
@@ -5887,19 +5893,19 @@
         <v>94865</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>42</v>
@@ -5908,13 +5914,13 @@
         <v>45772</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>206</v>
+        <v>427</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -5923,13 +5929,13 @@
         <v>25441</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="M26" s="7">
         <v>67</v>
@@ -5938,13 +5944,13 @@
         <v>71213</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,13 +5965,13 @@
         <v>363820</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>265</v>
@@ -5974,13 +5980,13 @@
         <v>270558</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
@@ -5989,18 +5995,18 @@
         <v>634378</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6012,13 +6018,13 @@
         <v>102516</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>334</v>
+        <v>435</v>
       </c>
       <c r="H28" s="7">
         <v>91</v>
@@ -6027,13 +6033,13 @@
         <v>97799</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M28" s="7">
         <v>190</v>
@@ -6042,13 +6048,13 @@
         <v>200316</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,13 +6069,13 @@
         <v>80388</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>448</v>
+        <v>380</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -6078,13 +6084,13 @@
         <v>44338</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="M29" s="7">
         <v>119</v>
@@ -6093,13 +6099,13 @@
         <v>124725</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>382</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,13 +6120,13 @@
         <v>108608</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>455</v>
+        <v>70</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H30" s="7">
         <v>89</v>
@@ -6129,13 +6135,13 @@
         <v>93591</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>253</v>
+        <v>451</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="M30" s="7">
         <v>196</v>
@@ -6144,13 +6150,13 @@
         <v>202199</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>82</v>
+        <v>455</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,13 +6171,13 @@
         <v>66045</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="H31" s="7">
         <v>49</v>
@@ -6180,13 +6186,13 @@
         <v>51787</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="M31" s="7">
         <v>117</v>
@@ -6195,19 +6201,19 @@
         <v>117832</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>42</v>
@@ -6216,13 +6222,13 @@
         <v>43614</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="H32" s="7">
         <v>36</v>
@@ -6231,13 +6237,13 @@
         <v>37959</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>89</v>
+        <v>268</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>104</v>
+        <v>468</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="M32" s="7">
         <v>78</v>
@@ -6246,13 +6252,13 @@
         <v>81573</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,13 +6273,13 @@
         <v>401171</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>307</v>
@@ -6282,13 +6288,13 @@
         <v>325474</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>700</v>
@@ -6297,13 +6303,13 @@
         <v>726645</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,13 +6326,13 @@
         <v>329042</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>477</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H34" s="7">
         <v>254</v>
@@ -6335,13 +6341,13 @@
         <v>261359</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="M34" s="7">
         <v>559</v>
@@ -6350,13 +6356,13 @@
         <v>590401</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6371,13 +6377,13 @@
         <v>244539</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>99</v>
+        <v>479</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>484</v>
+        <v>219</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H35" s="7">
         <v>191</v>
@@ -6389,10 +6395,10 @@
         <v>17</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>486</v>
+        <v>304</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="M35" s="7">
         <v>420</v>
@@ -6401,13 +6407,13 @@
         <v>439618</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>132</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,13 +6428,13 @@
         <v>427682</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H36" s="7">
         <v>297</v>
@@ -6437,13 +6443,13 @@
         <v>300983</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M36" s="7">
         <v>693</v>
@@ -6452,13 +6458,13 @@
         <v>728665</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>496</v>
+        <v>189</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,13 +6479,13 @@
         <v>260118</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>492</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H37" s="7">
         <v>174</v>
@@ -6488,13 +6494,13 @@
         <v>180353</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="M37" s="7">
         <v>419</v>
@@ -6503,19 +6509,19 @@
         <v>440471</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>148</v>
@@ -6524,13 +6530,13 @@
         <v>160941</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H38" s="7">
         <v>97</v>
@@ -6539,13 +6545,13 @@
         <v>99398</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M38" s="7">
         <v>245</v>
@@ -6557,10 +6563,10 @@
         <v>100</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,13 +6581,13 @@
         <v>1422322</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>1013</v>
@@ -6590,13 +6596,13 @@
         <v>1037172</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>2336</v>
@@ -6605,18 +6611,18 @@
         <v>2459494</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -6637,7 +6643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2389CCB3-7301-439B-89DC-F2DB9E392ADE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB52895D-CCB8-4736-B359-1AAA1DB7BE45}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6654,7 +6660,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6761,13 +6767,13 @@
         <v>7291</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>401</v>
+        <v>510</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6776,13 +6782,13 @@
         <v>1884</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -6791,13 +6797,13 @@
         <v>9176</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6812,13 +6818,13 @@
         <v>1844</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>256</v>
+        <v>519</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6827,13 +6833,13 @@
         <v>1989</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -6842,13 +6848,13 @@
         <v>3833</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,13 +6869,13 @@
         <v>3604</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6878,13 +6884,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6893,13 +6899,13 @@
         <v>3604</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,13 +6920,13 @@
         <v>1382</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -6929,13 +6935,13 @@
         <v>3987</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -6944,19 +6950,19 @@
         <v>5370</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -6965,13 +6971,13 @@
         <v>1263</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6980,13 +6986,13 @@
         <v>543</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -6995,13 +7001,13 @@
         <v>1806</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7016,13 +7022,13 @@
         <v>15385</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -7031,13 +7037,13 @@
         <v>8404</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -7046,18 +7052,18 @@
         <v>23789</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7069,13 +7075,13 @@
         <v>16414</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -7084,13 +7090,13 @@
         <v>27695</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -7099,7 +7105,7 @@
         <v>44108</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>457</v>
+        <v>551</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>552</v>
@@ -7135,13 +7141,13 @@
         <v>4062</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>435</v>
+        <v>557</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -7150,13 +7156,13 @@
         <v>15191</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>560</v>
+        <v>289</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>102</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7171,13 +7177,13 @@
         <v>22743</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>241</v>
+        <v>563</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -7186,13 +7192,13 @@
         <v>21048</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>375</v>
+        <v>565</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -7201,13 +7207,13 @@
         <v>43791</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7222,13 +7228,13 @@
         <v>15552</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -7237,13 +7243,13 @@
         <v>11716</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -7252,19 +7258,19 @@
         <v>27268</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>4</v>
@@ -7273,13 +7279,13 @@
         <v>8707</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>131</v>
+        <v>580</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -7288,13 +7294,13 @@
         <v>828</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -7303,13 +7309,13 @@
         <v>9536</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,13 +7330,13 @@
         <v>74546</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>92</v>
@@ -7339,13 +7345,13 @@
         <v>65348</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -7354,13 +7360,13 @@
         <v>139894</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7377,13 +7383,13 @@
         <v>107610</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -7392,13 +7398,13 @@
         <v>40279</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -7407,13 +7413,13 @@
         <v>147889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7428,13 +7434,13 @@
         <v>29269</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>595</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -7443,13 +7449,13 @@
         <v>22824</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>594</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>445</v>
+        <v>599</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -7458,13 +7464,13 @@
         <v>52093</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7479,13 +7485,13 @@
         <v>48126</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>491</v>
+        <v>605</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -7494,13 +7500,13 @@
         <v>34165</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>601</v>
+        <v>43</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="M18" s="7">
         <v>91</v>
@@ -7509,13 +7515,13 @@
         <v>82291</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7530,13 +7536,13 @@
         <v>19790</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -7545,13 +7551,13 @@
         <v>16700</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>186</v>
+        <v>616</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -7560,19 +7566,19 @@
         <v>36489</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>7</v>
@@ -7581,13 +7587,13 @@
         <v>7838</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -7596,13 +7602,13 @@
         <v>14206</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -7611,13 +7617,13 @@
         <v>22044</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7632,13 +7638,13 @@
         <v>212633</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>166</v>
@@ -7647,13 +7653,13 @@
         <v>128174</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>307</v>
@@ -7662,13 +7668,13 @@
         <v>340807</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7685,13 +7691,13 @@
         <v>29461</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -7700,13 +7706,13 @@
         <v>25934</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>627</v>
+        <v>493</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -7715,13 +7721,13 @@
         <v>55395</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7736,13 +7742,13 @@
         <v>9973</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -7754,10 +7760,10 @@
         <v>153</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="M23" s="7">
         <v>32</v>
@@ -7766,13 +7772,13 @@
         <v>28563</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,13 +7793,13 @@
         <v>18525</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -7802,13 +7808,13 @@
         <v>19710</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>547</v>
+        <v>126</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -7817,13 +7823,13 @@
         <v>38235</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,13 +7844,13 @@
         <v>9744</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -7853,13 +7859,13 @@
         <v>6833</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -7868,19 +7874,19 @@
         <v>16577</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>10</v>
@@ -7889,13 +7895,13 @@
         <v>13402</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>657</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -7904,13 +7910,13 @@
         <v>18430</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -7919,13 +7925,13 @@
         <v>31832</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>662</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7940,13 +7946,13 @@
         <v>81105</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>110</v>
@@ -7955,13 +7961,13 @@
         <v>89496</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>180</v>
@@ -7970,18 +7976,18 @@
         <v>170601</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7993,13 +7999,13 @@
         <v>49500</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="H28" s="7">
         <v>45</v>
@@ -8008,13 +8014,13 @@
         <v>33189</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="M28" s="7">
         <v>90</v>
@@ -8023,13 +8029,13 @@
         <v>82689</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,13 +8050,13 @@
         <v>13618</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -8059,13 +8065,13 @@
         <v>14240</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -8074,13 +8080,13 @@
         <v>27858</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>436</v>
+        <v>35</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>265</v>
+        <v>682</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,13 +8101,13 @@
         <v>27844</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>88</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="H30" s="7">
         <v>37</v>
@@ -8110,13 +8116,13 @@
         <v>27380</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>487</v>
+        <v>686</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="M30" s="7">
         <v>63</v>
@@ -8125,13 +8131,13 @@
         <v>55224</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>684</v>
+        <v>109</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>196</v>
+        <v>689</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8146,13 +8152,13 @@
         <v>9923</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -8161,13 +8167,13 @@
         <v>11898</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="M31" s="7">
         <v>25</v>
@@ -8176,19 +8182,19 @@
         <v>21820</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>11</v>
@@ -8197,13 +8203,13 @@
         <v>12199</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>132</v>
+        <v>699</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -8212,13 +8218,13 @@
         <v>7881</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="M32" s="7">
         <v>21</v>
@@ -8227,13 +8233,13 @@
         <v>20081</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8248,13 +8254,13 @@
         <v>113085</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>128</v>
@@ -8263,13 +8269,13 @@
         <v>94587</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>236</v>
@@ -8278,13 +8284,13 @@
         <v>207672</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8301,13 +8307,13 @@
         <v>210276</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="H34" s="7">
         <v>167</v>
@@ -8316,13 +8322,13 @@
         <v>128981</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="M34" s="7">
         <v>304</v>
@@ -8331,13 +8337,13 @@
         <v>339257</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>706</v>
+        <v>166</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8352,13 +8358,13 @@
         <v>65834</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>710</v>
+        <v>63</v>
       </c>
       <c r="H35" s="7">
         <v>85</v>
@@ -8367,13 +8373,13 @@
         <v>61704</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="M35" s="7">
         <v>149</v>
@@ -8382,13 +8388,13 @@
         <v>127538</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>716</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8403,13 +8409,13 @@
         <v>120844</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="H36" s="7">
         <v>138</v>
@@ -8418,13 +8424,13 @@
         <v>102301</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>721</v>
+        <v>238</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="M36" s="7">
         <v>251</v>
@@ -8433,13 +8439,13 @@
         <v>223145</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8454,13 +8460,13 @@
         <v>56391</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>728</v>
+        <v>180</v>
       </c>
       <c r="H37" s="7">
         <v>68</v>
@@ -8469,13 +8475,13 @@
         <v>51133</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M37" s="7">
         <v>116</v>
@@ -8484,19 +8490,19 @@
         <v>107525</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>410</v>
+        <v>732</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>33</v>
@@ -8505,13 +8511,13 @@
         <v>43409</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H38" s="7">
         <v>51</v>
@@ -8520,13 +8526,13 @@
         <v>41888</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="M38" s="7">
         <v>84</v>
@@ -8535,13 +8541,13 @@
         <v>85298</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8556,13 +8562,13 @@
         <v>496754</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>509</v>
@@ -8571,13 +8577,13 @@
         <v>386007</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>904</v>
@@ -8586,18 +8592,18 @@
         <v>882762</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6704-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6704-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{045C1C29-FB74-4662-B58C-F23028C378F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7428DDC-A868-430B-A15D-B07F546B689A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{95AB5F16-677F-4ED9-A991-17C99EBCAC7F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{32F47594-2772-4440-BF56-3A292E980A13}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="744">
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2012 (Tasa respuesta: 33,79%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="727">
+  <si>
+    <t>Población según si le cuesta olvidar los problemas del trabajo en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -76,28 +76,28 @@
     <t>21,92%</t>
   </si>
   <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
   </si>
   <si>
     <t>12,42%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
   </si>
   <si>
     <t>18,81%</t>
   </si>
   <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -106,2149 +106,2104 @@
     <t>14,46%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le cuesta olvidar los problemas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>Población según si le cuesta olvidar los problemas del trabajo en 2023 (Tasa respuesta: 10,34%)</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
     <t>10,43%</t>
   </si>
   <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
   </si>
   <si>
     <t>34,08%</t>
   </si>
   <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>Población según si le cuata olvidar los problemas del trabajo en 2023 (Tasa respuesta: 10,34%)</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
   </si>
   <si>
     <t>32,88%</t>
   </si>
   <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
+    <t>51,28%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>9,39%</t>
+    <t>17,21%</t>
   </si>
   <si>
     <t>15,99%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>11,65%</t>
+    <t>11,25%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
   </si>
   <si>
     <t>25,28%</t>
   </si>
   <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
+    <t>9,71%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>5,87%</t>
+    <t>5,68%</t>
   </si>
   <si>
     <t>12,44%</t>
@@ -2257,19 +2212,13 @@
     <t>10,85%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
   </si>
 </sst>
 </file>
@@ -2681,7 +2630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FDF9BA-17C1-4740-A5F6-5B92787306A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6B4936-08E2-46D7-97DE-FBF34DB46B4E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3230,13 +3179,13 @@
         <v>42505</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>96</v>
@@ -3245,13 +3194,13 @@
         <v>99553</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3215,13 @@
         <v>35622</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -3281,13 +3230,13 @@
         <v>18420</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -3296,13 +3245,13 @@
         <v>54042</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3266,13 @@
         <v>25949</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -3332,13 +3281,13 @@
         <v>14412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -3347,7 +3296,7 @@
         <v>40360</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>104</v>
@@ -3478,7 +3427,7 @@
         <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -3523,13 +3472,13 @@
         <v>126553</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -3541,10 +3490,10 @@
         <v>24</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>186</v>
@@ -3553,13 +3502,13 @@
         <v>200775</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3523,13 @@
         <v>62625</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -3592,10 +3541,10 @@
         <v>117</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>97</v>
@@ -3604,13 +3553,13 @@
         <v>104864</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3574,13 @@
         <v>75257</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -3640,13 +3589,13 @@
         <v>42453</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
@@ -3655,13 +3604,13 @@
         <v>117711</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,7 +3666,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3729,13 +3678,13 @@
         <v>70584</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -3744,13 +3693,13 @@
         <v>39898</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>98</v>
@@ -3759,13 +3708,13 @@
         <v>110482</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3729,13 @@
         <v>48175</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -3795,13 +3744,13 @@
         <v>39258</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>77</v>
@@ -3810,13 +3759,13 @@
         <v>87434</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3780,13 @@
         <v>87788</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>48</v>
@@ -3846,13 +3795,13 @@
         <v>54203</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>129</v>
@@ -3861,13 +3810,13 @@
         <v>141991</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3831,13 @@
         <v>40075</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -3897,13 +3846,13 @@
         <v>26877</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -3912,13 +3861,13 @@
         <v>66951</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3882,13 @@
         <v>73025</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>45</v>
@@ -3948,13 +3897,13 @@
         <v>52048</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>111</v>
@@ -3963,13 +3912,13 @@
         <v>125073</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,7 +3974,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4037,13 +3986,13 @@
         <v>64008</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>79</v>
@@ -4052,13 +4001,13 @@
         <v>82537</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>140</v>
@@ -4067,13 +4016,13 @@
         <v>146545</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4037,13 @@
         <v>76146</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -4109,7 +4058,7 @@
         <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="M29" s="7">
         <v>114</v>
@@ -4118,13 +4067,13 @@
         <v>119061</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4088,13 @@
         <v>146350</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>90</v>
@@ -4154,13 +4103,13 @@
         <v>93809</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>234</v>
@@ -4169,13 +4118,13 @@
         <v>240159</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4139,13 @@
         <v>85151</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>54</v>
@@ -4205,13 +4154,13 @@
         <v>58440</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M31" s="7">
         <v>137</v>
@@ -4223,10 +4172,10 @@
         <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4190,13 @@
         <v>44678</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>22</v>
@@ -4256,13 +4205,13 @@
         <v>22816</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>64</v>
@@ -4271,13 +4220,13 @@
         <v>67493</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4294,13 @@
         <v>264360</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>204</v>
@@ -4360,13 +4309,13 @@
         <v>221866</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>446</v>
@@ -4375,10 +4324,10 @@
         <v>486225</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>238</v>
@@ -4411,13 +4360,13 @@
         <v>163024</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>390</v>
@@ -4426,13 +4375,13 @@
         <v>421235</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,10 +4477,10 @@
         <v>379988</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>263</v>
@@ -4579,13 +4528,13 @@
         <v>356038</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,7 +4590,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4662,7 +4611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96F014E-4703-4D80-9CD5-81BD7DF66E71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF74C29A-D6E1-4801-AF0C-00AC5392ABF5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4679,7 +4628,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4786,13 +4735,13 @@
         <v>10309</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4801,13 +4750,13 @@
         <v>7093</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4816,13 +4765,13 @@
         <v>17402</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>282</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4786,13 @@
         <v>4991</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4852,13 +4801,13 @@
         <v>4350</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4867,13 +4816,13 @@
         <v>9342</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4837,13 @@
         <v>10743</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4903,13 +4852,13 @@
         <v>6451</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4918,13 +4867,13 @@
         <v>17194</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4888,13 @@
         <v>13153</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4954,13 +4903,13 @@
         <v>9247</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -4969,13 +4918,13 @@
         <v>22399</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +4939,13 @@
         <v>4825</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -5005,13 +4954,13 @@
         <v>2750</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -5020,13 +4969,13 @@
         <v>7575</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>316</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5043,13 @@
         <v>34735</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>314</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -5109,13 +5058,13 @@
         <v>36126</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>317</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>319</v>
+        <v>113</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -5124,13 +5073,13 @@
         <v>70861</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5094,13 @@
         <v>35617</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -5160,13 +5109,13 @@
         <v>33186</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>328</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7">
         <v>67</v>
@@ -5175,13 +5124,13 @@
         <v>68804</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5145,13 @@
         <v>61146</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -5211,13 +5160,13 @@
         <v>34799</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M12" s="7">
         <v>95</v>
@@ -5226,13 +5175,13 @@
         <v>95945</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5196,13 @@
         <v>46712</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -5262,13 +5211,13 @@
         <v>22196</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -5277,13 +5226,13 @@
         <v>68908</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>346</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5247,13 @@
         <v>21059</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -5313,13 +5262,13 @@
         <v>11171</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -5328,13 +5277,13 @@
         <v>32229</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5351,13 @@
         <v>104645</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>355</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -5417,13 +5366,13 @@
         <v>77156</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
         <v>170</v>
@@ -5432,13 +5381,13 @@
         <v>181802</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5402,13 @@
         <v>65140</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -5468,13 +5417,13 @@
         <v>50066</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
@@ -5483,13 +5432,13 @@
         <v>115206</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5453,13 @@
         <v>114160</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H18" s="7">
         <v>73</v>
@@ -5519,13 +5468,13 @@
         <v>72429</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M18" s="7">
         <v>176</v>
@@ -5534,13 +5483,13 @@
         <v>186588</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5504,13 @@
         <v>84424</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>145</v>
+        <v>378</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
@@ -5585,13 +5534,13 @@
         <v>136467</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5555,13 @@
         <v>45672</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -5621,13 +5570,13 @@
         <v>22077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>61</v>
@@ -5636,13 +5585,13 @@
         <v>67749</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>279</v>
+        <v>388</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,7 +5647,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5731,7 +5680,7 @@
         <v>395</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>396</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
@@ -5740,13 +5689,13 @@
         <v>120020</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,13 +5710,13 @@
         <v>58403</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H23" s="7">
         <v>62</v>
@@ -5776,13 +5725,13 @@
         <v>63138</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>404</v>
+        <v>239</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M23" s="7">
         <v>115</v>
@@ -5791,13 +5740,13 @@
         <v>121541</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>343</v>
+        <v>403</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5761,13 @@
         <v>133025</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H24" s="7">
         <v>92</v>
@@ -5827,13 +5776,13 @@
         <v>93714</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>412</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M24" s="7">
         <v>210</v>
@@ -5842,13 +5791,13 @@
         <v>226739</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,13 +5812,13 @@
         <v>49784</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -5878,13 +5827,13 @@
         <v>45081</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="M25" s="7">
         <v>90</v>
@@ -5893,13 +5842,13 @@
         <v>94865</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5863,13 @@
         <v>45772</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -5929,13 +5878,13 @@
         <v>25441</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M26" s="7">
         <v>67</v>
@@ -5944,13 +5893,13 @@
         <v>71213</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,7 +5955,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6018,13 +5967,13 @@
         <v>102516</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H28" s="7">
         <v>91</v>
@@ -6033,13 +5982,13 @@
         <v>97799</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>437</v>
+        <v>344</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="M28" s="7">
         <v>190</v>
@@ -6048,13 +5997,13 @@
         <v>200316</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,13 +6018,13 @@
         <v>80388</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>441</v>
+        <v>94</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -6084,13 +6033,13 @@
         <v>44338</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="M29" s="7">
         <v>119</v>
@@ -6099,13 +6048,13 @@
         <v>124725</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6069,13 @@
         <v>108608</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>70</v>
+        <v>444</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H30" s="7">
         <v>89</v>
@@ -6135,13 +6084,13 @@
         <v>93591</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>451</v>
+        <v>248</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>439</v>
+        <v>49</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="M30" s="7">
         <v>196</v>
@@ -6150,13 +6099,13 @@
         <v>202199</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6120,13 @@
         <v>66045</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="H31" s="7">
         <v>49</v>
@@ -6186,13 +6135,13 @@
         <v>51787</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>461</v>
+        <v>122</v>
       </c>
       <c r="M31" s="7">
         <v>117</v>
@@ -6201,13 +6150,13 @@
         <v>117832</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6171,13 @@
         <v>43614</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="H32" s="7">
         <v>36</v>
@@ -6237,13 +6186,13 @@
         <v>37959</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>268</v>
+        <v>460</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>469</v>
+        <v>189</v>
       </c>
       <c r="M32" s="7">
         <v>78</v>
@@ -6252,13 +6201,13 @@
         <v>81573</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>471</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,13 +6275,13 @@
         <v>329042</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>233</v>
+        <v>464</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H34" s="7">
         <v>254</v>
@@ -6341,13 +6290,13 @@
         <v>261359</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="M34" s="7">
         <v>559</v>
@@ -6356,13 +6305,13 @@
         <v>590401</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>478</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,13 +6326,13 @@
         <v>244539</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>219</v>
+        <v>472</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="H35" s="7">
         <v>191</v>
@@ -6395,10 +6344,10 @@
         <v>17</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>304</v>
+        <v>474</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="M35" s="7">
         <v>420</v>
@@ -6407,13 +6356,13 @@
         <v>439618</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,13 +6377,13 @@
         <v>427682</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H36" s="7">
         <v>297</v>
@@ -6443,13 +6392,13 @@
         <v>300983</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="M36" s="7">
         <v>693</v>
@@ -6458,13 +6407,13 @@
         <v>728665</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>189</v>
+        <v>485</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,13 +6428,13 @@
         <v>260118</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>493</v>
+        <v>81</v>
       </c>
       <c r="H37" s="7">
         <v>174</v>
@@ -6494,13 +6443,13 @@
         <v>180353</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="M37" s="7">
         <v>419</v>
@@ -6509,13 +6458,13 @@
         <v>440471</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6479,13 @@
         <v>160941</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H38" s="7">
         <v>97</v>
@@ -6545,13 +6494,13 @@
         <v>99398</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="M38" s="7">
         <v>245</v>
@@ -6560,13 +6509,13 @@
         <v>260339</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,7 +6571,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -6643,7 +6592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB52895D-CCB8-4736-B359-1AAA1DB7BE45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BBE19E-999A-4CAF-83E0-7F0AEB2C6B02}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6660,7 +6609,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6767,13 +6716,13 @@
         <v>7291</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6782,13 +6731,13 @@
         <v>1884</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>512</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -6797,13 +6746,13 @@
         <v>9176</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6818,13 +6767,13 @@
         <v>1844</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6833,13 +6782,13 @@
         <v>1989</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -6848,13 +6797,13 @@
         <v>3833</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,13 +6818,13 @@
         <v>3604</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>526</v>
+        <v>55</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6887,10 +6836,10 @@
         <v>55</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6899,13 +6848,13 @@
         <v>3604</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6920,13 +6869,13 @@
         <v>1382</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -6935,13 +6884,13 @@
         <v>3987</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -6950,13 +6899,13 @@
         <v>5370</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>539</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,13 +6920,13 @@
         <v>1263</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6986,13 +6935,13 @@
         <v>543</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -7001,13 +6950,13 @@
         <v>1806</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,13 +7024,13 @@
         <v>16414</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>126</v>
+        <v>537</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -7090,13 +7039,13 @@
         <v>27695</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -7105,13 +7054,13 @@
         <v>44108</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7126,13 +7075,13 @@
         <v>11129</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -7141,13 +7090,13 @@
         <v>4062</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>557</v>
+        <v>516</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -7156,13 +7105,13 @@
         <v>15191</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>289</v>
+        <v>552</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,13 +7126,13 @@
         <v>22743</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -7192,13 +7141,13 @@
         <v>21048</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -7207,13 +7156,13 @@
         <v>43791</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7228,13 +7177,13 @@
         <v>15552</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -7243,13 +7192,13 @@
         <v>11716</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>574</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -7258,13 +7207,13 @@
         <v>27268</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7279,13 +7228,13 @@
         <v>8707</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>580</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -7294,13 +7243,13 @@
         <v>828</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>523</v>
+        <v>387</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -7309,13 +7258,13 @@
         <v>9536</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7383,13 +7332,13 @@
         <v>107610</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -7398,13 +7347,13 @@
         <v>40279</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -7413,13 +7362,13 @@
         <v>147889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>592</v>
+        <v>512</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7434,13 +7383,13 @@
         <v>29269</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -7449,13 +7398,13 @@
         <v>22824</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>421</v>
+        <v>587</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -7464,13 +7413,13 @@
         <v>52093</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7485,13 +7434,13 @@
         <v>48126</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -7500,13 +7449,13 @@
         <v>34165</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>43</v>
+        <v>596</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="M18" s="7">
         <v>91</v>
@@ -7515,13 +7464,13 @@
         <v>82291</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,13 +7485,13 @@
         <v>19790</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -7551,13 +7500,13 @@
         <v>16700</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -7566,13 +7515,13 @@
         <v>36489</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>618</v>
+        <v>425</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,13 +7536,13 @@
         <v>7838</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -7602,13 +7551,13 @@
         <v>14206</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -7617,13 +7566,13 @@
         <v>22044</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>628</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7679,7 +7628,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7691,13 +7640,13 @@
         <v>29461</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>630</v>
+        <v>344</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -7706,13 +7655,13 @@
         <v>25934</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>493</v>
+        <v>620</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -7721,13 +7670,13 @@
         <v>55395</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,13 +7691,13 @@
         <v>9973</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -7757,13 +7706,13 @@
         <v>18590</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="M23" s="7">
         <v>32</v>
@@ -7772,13 +7721,13 @@
         <v>28563</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>642</v>
+        <v>392</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,13 +7742,13 @@
         <v>18525</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>645</v>
+        <v>148</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -7808,13 +7757,13 @@
         <v>19710</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>126</v>
+        <v>537</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>647</v>
+        <v>279</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -7823,13 +7772,13 @@
         <v>38235</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>649</v>
+        <v>467</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>487</v>
+        <v>635</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7793,13 @@
         <v>9744</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -7859,13 +7808,13 @@
         <v>6833</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>656</v>
+        <v>203</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -7874,13 +7823,13 @@
         <v>16577</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,13 +7844,13 @@
         <v>13402</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>646</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -7910,13 +7859,13 @@
         <v>18430</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -7925,13 +7874,13 @@
         <v>31832</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>136</v>
+        <v>651</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,7 +7936,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7999,13 +7948,13 @@
         <v>49500</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="H28" s="7">
         <v>45</v>
@@ -8014,13 +7963,13 @@
         <v>33189</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="M28" s="7">
         <v>90</v>
@@ -8029,13 +7978,13 @@
         <v>82689</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>675</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8050,13 +7999,13 @@
         <v>13618</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>381</v>
+        <v>663</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -8065,13 +8014,13 @@
         <v>14240</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>680</v>
+        <v>91</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -8080,13 +8029,13 @@
         <v>27858</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>35</v>
+        <v>666</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8101,13 +8050,13 @@
         <v>27844</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>88</v>
+        <v>670</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="H30" s="7">
         <v>37</v>
@@ -8116,13 +8065,13 @@
         <v>27380</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>686</v>
+        <v>373</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="M30" s="7">
         <v>63</v>
@@ -8131,13 +8080,13 @@
         <v>55224</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>109</v>
+        <v>675</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8152,13 +8101,13 @@
         <v>9923</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -8167,13 +8116,13 @@
         <v>11898</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="M31" s="7">
         <v>25</v>
@@ -8182,13 +8131,13 @@
         <v>21820</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8203,13 +8152,13 @@
         <v>12199</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -8218,13 +8167,13 @@
         <v>7881</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>700</v>
+        <v>175</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>456</v>
+        <v>689</v>
       </c>
       <c r="M32" s="7">
         <v>21</v>
@@ -8233,13 +8182,13 @@
         <v>20081</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8307,13 +8256,13 @@
         <v>210276</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="H34" s="7">
         <v>167</v>
@@ -8322,13 +8271,13 @@
         <v>128981</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="M34" s="7">
         <v>304</v>
@@ -8337,13 +8286,13 @@
         <v>339257</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>166</v>
+        <v>700</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,13 +8307,13 @@
         <v>65834</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>714</v>
+        <v>422</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>63</v>
+        <v>703</v>
       </c>
       <c r="H35" s="7">
         <v>85</v>
@@ -8373,13 +8322,13 @@
         <v>61704</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="M35" s="7">
         <v>149</v>
@@ -8388,13 +8337,13 @@
         <v>127538</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>221</v>
+        <v>703</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8409,13 +8358,13 @@
         <v>120844</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>721</v>
+        <v>231</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="H36" s="7">
         <v>138</v>
@@ -8424,13 +8373,13 @@
         <v>102301</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>723</v>
+        <v>23</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>238</v>
+        <v>711</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="M36" s="7">
         <v>251</v>
@@ -8439,13 +8388,13 @@
         <v>223145</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8460,13 +8409,13 @@
         <v>56391</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>728</v>
+        <v>227</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>729</v>
+        <v>680</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>180</v>
+        <v>716</v>
       </c>
       <c r="H37" s="7">
         <v>68</v>
@@ -8475,13 +8424,13 @@
         <v>51133</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>730</v>
+        <v>593</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="M37" s="7">
         <v>116</v>
@@ -8490,13 +8439,13 @@
         <v>107525</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>734</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8511,13 +8460,13 @@
         <v>43409</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="H38" s="7">
         <v>51</v>
@@ -8526,13 +8475,13 @@
         <v>41888</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>739</v>
+        <v>223</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="M38" s="7">
         <v>84</v>
@@ -8541,13 +8490,13 @@
         <v>85298</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>741</v>
+        <v>564</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8603,7 +8552,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
